--- a/Docs/ARB Stiffness Map.xlsx
+++ b/Docs/ARB Stiffness Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d030e980fc414b5/Documents/BeamNG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1004" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73BE00D3-6235-437E-B8E1-69F8E7A658BE}"/>
+  <xr:revisionPtr revIDLastSave="1238" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{324FF12E-5C9A-4E70-B917-BD330A1D7DBD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{D4416D72-3604-43CB-A686-6E38D6CE2DE9}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Gravel" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,15 +104,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13.41/14.03mm</t>
+    <t>13.41/14.51mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17.65/17.93mm</t>
+    <t>15.88/16.58mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15.53/16.09mm</t>
+    <t>18.42/18.87mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +172,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -186,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -214,13 +222,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF156082"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF156082"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF156082"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF156082"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF156082"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF156082"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF156082"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF156082"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +297,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -255,7 +322,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="46">
     <dxf>
       <font>
         <b/>
@@ -344,50 +411,22 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF156082"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -407,6 +446,18 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF156082"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF156082"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -539,12 +590,53 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF156082"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
         <color auto="1"/>
         <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF156082"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF156082"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -587,44 +679,6 @@
           <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -834,12 +888,53 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF156082"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
         <color auto="1"/>
         <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF156082"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF156082"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -972,12 +1067,22 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF156082"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -997,6 +1102,20 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF156082"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF156082"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF156082"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1129,12 +1248,21 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="等线"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF156082"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1148,12 +1276,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="等线"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF156082"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF156082"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF156082"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1345,31 +1486,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.1451030307592466E-2</c:v>
+                  <c:v>1.0621578697333314E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3741236369110963E-2</c:v>
+                  <c:v>1.2745894436799979E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4600063642180396E-2</c:v>
+                  <c:v>1.3959789145066641E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0632384289277664E-2</c:v>
+                  <c:v>1.8764097522925745E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4758861147133198E-2</c:v>
+                  <c:v>2.2516917027510897E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6306289968829017E-2</c:v>
+                  <c:v>2.4661385315845271E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4239036836048391E-2</c:v>
+                  <c:v>3.1138651610736923E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1086844203258074E-2</c:v>
+                  <c:v>3.7366381932884309E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3654771965961695E-2</c:v>
+                  <c:v>4.0925084974111389E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,31 +1579,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.0723488820609093E-2</c:v>
+                  <c:v>1.7872644925738888E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3409867001058422E-2</c:v>
+                  <c:v>2.1359990277102576E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5328708558522227E-2</c:v>
+                  <c:v>2.3539581121704879E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5094634332353138E-2</c:v>
+                  <c:v>2.703777792108579E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9643938782843356E-2</c:v>
+                  <c:v>3.2313441905687898E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2893441961764943E-2</c:v>
+                  <c:v>3.5610731896064209E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2963693562225467E-2</c:v>
+                  <c:v>4.0804544958479252E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9829357542513957E-2</c:v>
+                  <c:v>4.8766407389402043E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.473340324272002E-2</c:v>
+                  <c:v>5.3742571408728783E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,31 +1930,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0221452463088686E-2</c:v>
+                  <c:v>9.7882303460232623E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2699380332928365E-2</c:v>
+                  <c:v>1.2235287932529077E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4248085251578167E-2</c:v>
+                  <c:v>1.3764698924095214E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8416939746740472E-2</c:v>
+                  <c:v>1.729190302339461E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2881652412616946E-2</c:v>
+                  <c:v>2.1614878779243261E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5672097828789747E-2</c:v>
+                  <c:v>2.4316738626648671E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0562550093816965E-2</c:v>
+                  <c:v>2.8695573729259599E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7971653146863495E-2</c:v>
+                  <c:v>3.5869467161574506E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2602342555017589E-2</c:v>
+                  <c:v>4.0353150556771321E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,31 +2023,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.0402633347065959E-2</c:v>
+                  <c:v>1.8205590298851368E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3875422001885704E-2</c:v>
+                  <c:v>2.1940070360154214E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5611816329295569E-2</c:v>
+                  <c:v>2.3807310390805636E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4551274784402314E-2</c:v>
+                  <c:v>2.7541458439300757E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0432342832811219E-2</c:v>
+                  <c:v>3.3190988375567575E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3372876857015671E-2</c:v>
+                  <c:v>3.6015753343700989E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2143672805797563E-2</c:v>
+                  <c:v>4.1564683399226816E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1019191581252477E-2</c:v>
+                  <c:v>5.0090772301632308E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5456950968979924E-2</c:v>
+                  <c:v>5.4353816752835064E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3264,17 +3405,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C77C6B4E-D8C9-4073-A8B2-3AC1FCD1DADC}" name="表1_6" displayName="表1_6" ref="B2:G8" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C77C6B4E-D8C9-4073-A8B2-3AC1FCD1DADC}" name="表1_6" displayName="表1_6" ref="B2:G8" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="B2:G8" xr:uid="{3D2A340A-0690-4DC8-927E-FE8D1BB734CB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B8F3A288-9FF2-4A3A-89C2-FB0C7553941F}" name="Wheel" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{772F205F-9B3A-4FE5-A1B8-862C5D16F956}" name="ARB" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{8EFC5114-561D-401D-9E23-D06C634ECD16}" name="MOTION RATIO" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{B8F3A288-9FF2-4A3A-89C2-FB0C7553941F}" name="Wheel" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{772F205F-9B3A-4FE5-A1B8-862C5D16F956}" name="ARB" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{8EFC5114-561D-401D-9E23-D06C634ECD16}" name="MOTION RATIO" dataDxfId="41">
       <calculatedColumnFormula>表1_6[[#This Row],[ARB]]/表1_6[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{92304CA7-B80B-4E14-9D5E-DF1B530591D3}" name="CANTILEVER" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{33259B9F-E071-496E-9E0F-FFF4FB732FF2}" name="TORSION" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{D6344C61-2A9A-4E19-AA81-96BE88DF5F64}" name="NORMAL" dataDxfId="40">
+    <tableColumn id="4" xr3:uid="{92304CA7-B80B-4E14-9D5E-DF1B530591D3}" name="CANTILEVER" dataDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{33259B9F-E071-496E-9E0F-FFF4FB732FF2}" name="TORSION" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{D6344C61-2A9A-4E19-AA81-96BE88DF5F64}" name="NORMAL" dataDxfId="38">
       <calculatedColumnFormula>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3283,17 +3424,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{85B164DE-ED54-4093-B3D1-3D06324DC7CD}" name="表1_47" displayName="表1_47" ref="B10:G16" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{85B164DE-ED54-4093-B3D1-3D06324DC7CD}" name="表1_47" displayName="表1_47" ref="B10:G16" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="B10:G16" xr:uid="{34C4E870-3033-4640-B8A2-3E1FBE4B7F1C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FAD72ABC-0066-4C42-A1AC-03A3728796E5}" name="Wheel" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{71EDC2A1-50A4-422B-B1EA-57AAB120DF86}" name="ARB" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{B198618F-C6AB-4943-88D8-B91E28D42407}" name="MOTION RATIO" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{FAD72ABC-0066-4C42-A1AC-03A3728796E5}" name="Wheel" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{71EDC2A1-50A4-422B-B1EA-57AAB120DF86}" name="ARB" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{B198618F-C6AB-4943-88D8-B91E28D42407}" name="MOTION RATIO" dataDxfId="33">
       <calculatedColumnFormula>表1_47[[#This Row],[ARB]]/表1_47[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0D950A5D-AE90-4CA8-B0FA-7C7669B74CD6}" name="CANTILEVER" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{FD285504-685D-43B5-9C8F-A6479E55FAC6}" name="TORSION" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{5C8AE37F-186E-499F-B0E8-E35BA5E34290}" name="NORMAL" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{0D950A5D-AE90-4CA8-B0FA-7C7669B74CD6}" name="CANTILEVER" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{FD285504-685D-43B5-9C8F-A6479E55FAC6}" name="TORSION" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{5C8AE37F-186E-499F-B0E8-E35BA5E34290}" name="NORMAL" dataDxfId="30">
       <calculatedColumnFormula>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3302,17 +3443,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{83A6FC0C-7708-4022-A939-45EE4AD521DD}" name="表1_458" displayName="表1_458" ref="B18:G24" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{83A6FC0C-7708-4022-A939-45EE4AD521DD}" name="表1_458" displayName="表1_458" ref="B18:G24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B18:G24" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{44F2A1F6-CC53-4052-BAF5-FEBE5AA593B1}" name="Wheel" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{9B3FCF63-702D-40CF-9D2D-EDEA09D00BC1}" name="ARB" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{51BC0E25-0E77-4001-BA6E-EBAFE70AEB41}" name="MOTION RATIO" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{44F2A1F6-CC53-4052-BAF5-FEBE5AA593B1}" name="Wheel" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{9B3FCF63-702D-40CF-9D2D-EDEA09D00BC1}" name="ARB" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{51BC0E25-0E77-4001-BA6E-EBAFE70AEB41}" name="MOTION RATIO" dataDxfId="25">
       <calculatedColumnFormula>表1_458[[#This Row],[ARB]]/表1_458[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4D3E5808-BFEB-47FF-ABED-535FB1EE40EB}" name="CANTILEVER" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{75717941-E6E8-45B1-A3F2-E5791D86F7A2}" name="TORSION" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0A5F1668-A137-4A0C-8A4F-A027387CE002}" name="NORMAL" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{4D3E5808-BFEB-47FF-ABED-535FB1EE40EB}" name="CANTILEVER" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{75717941-E6E8-45B1-A3F2-E5791D86F7A2}" name="TORSION" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{0A5F1668-A137-4A0C-8A4F-A027387CE002}" name="NORMAL" dataDxfId="22">
       <calculatedColumnFormula>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3321,17 +3462,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D2A340A-0690-4DC8-927E-FE8D1BB734CB}" name="表1" displayName="表1" ref="B2:G8" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D2A340A-0690-4DC8-927E-FE8D1BB734CB}" name="表1" displayName="表1" ref="B2:G8" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B2:G8" xr:uid="{3D2A340A-0690-4DC8-927E-FE8D1BB734CB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BA9E0710-49E4-4631-8796-9828152C79EE}" name="Wheel" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{A7265771-FFDE-4F9C-A20D-93503DF684C3}" name="ARB" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{57924571-BD22-49F6-B47E-E7227CAD786C}" name="MOTION RATIO" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{BA9E0710-49E4-4631-8796-9828152C79EE}" name="Wheel"/>
+    <tableColumn id="2" xr3:uid="{A7265771-FFDE-4F9C-A20D-93503DF684C3}" name="ARB"/>
+    <tableColumn id="3" xr3:uid="{57924571-BD22-49F6-B47E-E7227CAD786C}" name="MOTION RATIO" dataDxfId="19">
       <calculatedColumnFormula>表1[[#This Row],[ARB]]/表1[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{968F555E-16ED-4EED-9489-491EA1BF772E}" name="CANTILEVER" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{573D6EAF-FDE3-4C6E-8E40-9F81E52EF9F5}" name="TORSION" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{EE2C02EC-821C-4B70-94B8-8337649055CF}" name="NORMAL" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{968F555E-16ED-4EED-9489-491EA1BF772E}" name="CANTILEVER" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{573D6EAF-FDE3-4C6E-8E40-9F81E52EF9F5}" name="TORSION" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{EE2C02EC-821C-4B70-94B8-8337649055CF}" name="NORMAL" dataDxfId="16">
       <calculatedColumnFormula>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3340,17 +3481,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{34C4E870-3033-4640-B8A2-3E1FBE4B7F1C}" name="表1_4" displayName="表1_4" ref="B10:G16" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{34C4E870-3033-4640-B8A2-3E1FBE4B7F1C}" name="表1_4" displayName="表1_4" ref="B10:G16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B10:G16" xr:uid="{34C4E870-3033-4640-B8A2-3E1FBE4B7F1C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{31D6B5A6-29F6-40D0-ABAA-E5059C36D1B5}" name="Wheel" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{3486DB28-9FB0-48EF-87CD-B65EF20F6F01}" name="ARB" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{6E023114-623D-4902-941F-35E1479B6411}" name="MOTION RATIO" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{31D6B5A6-29F6-40D0-ABAA-E5059C36D1B5}" name="Wheel" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{3486DB28-9FB0-48EF-87CD-B65EF20F6F01}" name="ARB" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{6E023114-623D-4902-941F-35E1479B6411}" name="MOTION RATIO" dataDxfId="11">
       <calculatedColumnFormula>表1_4[[#This Row],[ARB]]/表1_4[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1FB8ED05-3D86-4769-81DB-F0DBDB3CDE44}" name="CANTILEVER" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{1F17110F-EE9D-4BAE-9F87-AD8E1A304DBD}" name="TORSION" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{D6DEE0EA-ADFE-4C3D-9F50-924215005D24}" name="NORMAL" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{1FB8ED05-3D86-4769-81DB-F0DBDB3CDE44}" name="CANTILEVER" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{1F17110F-EE9D-4BAE-9F87-AD8E1A304DBD}" name="TORSION" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{D6DEE0EA-ADFE-4C3D-9F50-924215005D24}" name="NORMAL" dataDxfId="8">
       <calculatedColumnFormula>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3359,17 +3500,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}" name="表1_45" displayName="表1_45" ref="B18:G24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}" name="表1_45" displayName="表1_45" ref="B18:G24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B18:G24" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D7B341F8-7760-4D85-A77A-B67E1F741D90}" name="Wheel" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{0A9FF6E6-A324-450D-B137-3B47806EA86D}" name="ARB" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{137F4733-DE17-494E-9D05-D8BC09254548}" name="MOTION RATIO" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{D7B341F8-7760-4D85-A77A-B67E1F741D90}" name="Wheel" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0A9FF6E6-A324-450D-B137-3B47806EA86D}" name="ARB" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{137F4733-DE17-494E-9D05-D8BC09254548}" name="MOTION RATIO" dataDxfId="3">
       <calculatedColumnFormula>表1_45[[#This Row],[ARB]]/表1_45[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{402FC734-015E-48AD-9FFE-25F61C9EE630}" name="CANTILEVER" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{402FC734-015E-48AD-9FFE-25F61C9EE630}" name="CANTILEVER" dataDxfId="2"/>
     <tableColumn id="15" xr3:uid="{757504BF-2C1C-43B0-8007-2964AF0461ED}" name="TORSION" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{595E0B6D-3817-48BB-AE62-2A03988FE742}" name="NORMAL" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{595E0B6D-3817-48BB-AE62-2A03988FE742}" name="NORMAL" dataDxfId="0">
       <calculatedColumnFormula>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3697,7 +3838,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3712,15 +3853,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="18">
       <c r="A2" s="6"/>
@@ -3747,162 +3888,162 @@
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>132</v>
-      </c>
-      <c r="C3" s="2">
-        <v>40</v>
+      <c r="B3" s="8">
+        <v>127</v>
+      </c>
+      <c r="C3" s="9">
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <f>表1_6[[#This Row],[ARB]]/表1_6[[#This Row],[Wheel]]</f>
-        <v>0.30303030303030304</v>
+        <v>0.27559055118110237</v>
       </c>
       <c r="E3" s="3">
         <v>163</v>
       </c>
       <c r="F3" s="2">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="G3" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>1.1451030307592466E-2</v>
+        <v>1.0621578697333314E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>132</v>
-      </c>
-      <c r="C4" s="2">
-        <v>48</v>
+      <c r="B4" s="8">
+        <v>127</v>
+      </c>
+      <c r="C4" s="9">
+        <v>42</v>
       </c>
       <c r="D4" s="2">
         <f>表1_6[[#This Row],[ARB]]/表1_6[[#This Row],[Wheel]]</f>
-        <v>0.36363636363636365</v>
+        <v>0.33070866141732286</v>
       </c>
       <c r="E4" s="3">
         <v>163</v>
       </c>
       <c r="F4" s="2">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="G4" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>1.3741236369110963E-2</v>
+        <v>1.2745894436799979E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>132</v>
-      </c>
-      <c r="C5" s="5">
-        <v>51</v>
+      <c r="B5" s="8">
+        <v>127</v>
+      </c>
+      <c r="C5" s="10">
+        <v>46</v>
       </c>
       <c r="D5" s="5">
         <f>表1_6[[#This Row],[ARB]]/表1_6[[#This Row],[Wheel]]</f>
-        <v>0.38636363636363635</v>
+        <v>0.36220472440944884</v>
       </c>
       <c r="E5" s="3">
         <v>163</v>
       </c>
       <c r="F5" s="2">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="G5" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>1.4600063642180396E-2</v>
+        <v>1.3959789145066641E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>138</v>
-      </c>
-      <c r="C6" s="5">
-        <v>54</v>
+      <c r="B6" s="11">
+        <v>136</v>
+      </c>
+      <c r="C6" s="10">
+        <v>41</v>
       </c>
       <c r="D6" s="5">
         <f>表1_6[[#This Row],[ARB]]/表1_6[[#This Row],[Wheel]]</f>
-        <v>0.39130434782608697</v>
+        <v>0.3014705882352941</v>
       </c>
       <c r="E6" s="4">
         <v>154</v>
       </c>
       <c r="F6" s="5">
-        <v>1256</v>
+        <v>1406</v>
       </c>
       <c r="G6" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>2.0723488820609093E-2</v>
+        <v>1.7872644925738888E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>138</v>
-      </c>
-      <c r="C7" s="5">
-        <v>61</v>
+      <c r="B7" s="11">
+        <v>136</v>
+      </c>
+      <c r="C7" s="10">
+        <v>49</v>
       </c>
       <c r="D7" s="5">
         <f>表1_6[[#This Row],[ARB]]/表1_6[[#This Row],[Wheel]]</f>
-        <v>0.4420289855072464</v>
+        <v>0.36029411764705882</v>
       </c>
       <c r="E7" s="4">
         <v>154</v>
       </c>
       <c r="F7" s="5">
-        <v>1256</v>
+        <v>1406</v>
       </c>
       <c r="G7" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>2.3409867001058422E-2</v>
+        <v>2.1359990277102576E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>138</v>
-      </c>
-      <c r="C8" s="5">
-        <v>66</v>
+      <c r="B8" s="11">
+        <v>136</v>
+      </c>
+      <c r="C8" s="12">
+        <v>54</v>
       </c>
       <c r="D8" s="5">
         <f>表1_6[[#This Row],[ARB]]/表1_6[[#This Row],[Wheel]]</f>
-        <v>0.47826086956521741</v>
+        <v>0.39705882352941174</v>
       </c>
       <c r="E8" s="4">
         <v>154</v>
       </c>
       <c r="F8" s="5">
-        <v>1256</v>
+        <v>1406</v>
       </c>
       <c r="G8" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>2.5328708558522227E-2</v>
+        <v>2.3539581121704879E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="18">
       <c r="A10" s="6"/>
@@ -3929,15 +4070,15 @@
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>132</v>
-      </c>
-      <c r="C11" s="2">
-        <v>40</v>
+      <c r="B11" s="8">
+        <v>127</v>
+      </c>
+      <c r="C11" s="9">
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <f>表1_47[[#This Row],[ARB]]/表1_47[[#This Row],[Wheel]]</f>
-        <v>0.30303030303030304</v>
+        <v>0.27559055118110237</v>
       </c>
       <c r="E11" s="3">
         <v>163</v>
@@ -3947,22 +4088,22 @@
       </c>
       <c r="G11" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>2.0632384289277664E-2</v>
+        <v>1.8764097522925745E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>132</v>
-      </c>
-      <c r="C12" s="2">
-        <v>48</v>
+      <c r="B12" s="8">
+        <v>127</v>
+      </c>
+      <c r="C12" s="9">
+        <v>42</v>
       </c>
       <c r="D12" s="2">
         <f>表1_47[[#This Row],[ARB]]/表1_47[[#This Row],[Wheel]]</f>
-        <v>0.36363636363636365</v>
+        <v>0.33070866141732286</v>
       </c>
       <c r="E12" s="3">
         <v>163</v>
@@ -3972,22 +4113,22 @@
       </c>
       <c r="G12" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>2.4758861147133198E-2</v>
+        <v>2.2516917027510897E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>132</v>
-      </c>
-      <c r="C13" s="5">
-        <v>51</v>
+      <c r="B13" s="8">
+        <v>127</v>
+      </c>
+      <c r="C13" s="10">
+        <v>46</v>
       </c>
       <c r="D13" s="5">
         <f>表1_47[[#This Row],[ARB]]/表1_47[[#This Row],[Wheel]]</f>
-        <v>0.38636363636363635</v>
+        <v>0.36220472440944884</v>
       </c>
       <c r="E13" s="3">
         <v>163</v>
@@ -3997,22 +4138,22 @@
       </c>
       <c r="G13" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>2.6306289968829017E-2</v>
+        <v>2.4661385315845271E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2">
-        <v>138</v>
-      </c>
-      <c r="C14" s="5">
-        <v>54</v>
+      <c r="B14" s="11">
+        <v>136</v>
+      </c>
+      <c r="C14" s="10">
+        <v>41</v>
       </c>
       <c r="D14" s="5">
         <f>表1_47[[#This Row],[ARB]]/表1_47[[#This Row],[Wheel]]</f>
-        <v>0.39130434782608697</v>
+        <v>0.3014705882352941</v>
       </c>
       <c r="E14" s="4">
         <v>154</v>
@@ -4022,22 +4163,22 @@
       </c>
       <c r="G14" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>3.5094634332353138E-2</v>
+        <v>2.703777792108579E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2">
-        <v>138</v>
-      </c>
-      <c r="C15" s="5">
-        <v>61</v>
+      <c r="B15" s="11">
+        <v>136</v>
+      </c>
+      <c r="C15" s="10">
+        <v>49</v>
       </c>
       <c r="D15" s="5">
         <f>表1_47[[#This Row],[ARB]]/表1_47[[#This Row],[Wheel]]</f>
-        <v>0.4420289855072464</v>
+        <v>0.36029411764705882</v>
       </c>
       <c r="E15" s="4">
         <v>154</v>
@@ -4047,22 +4188,22 @@
       </c>
       <c r="G15" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>3.9643938782843356E-2</v>
+        <v>3.2313441905687898E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2">
-        <v>138</v>
-      </c>
-      <c r="C16" s="5">
-        <v>66</v>
+      <c r="B16" s="11">
+        <v>136</v>
+      </c>
+      <c r="C16" s="12">
+        <v>54</v>
       </c>
       <c r="D16" s="5">
         <f>表1_47[[#This Row],[ARB]]/表1_47[[#This Row],[Wheel]]</f>
-        <v>0.47826086956521741</v>
+        <v>0.39705882352941174</v>
       </c>
       <c r="E16" s="4">
         <v>154</v>
@@ -4072,19 +4213,19 @@
       </c>
       <c r="G16" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>4.2893441961764943E-2</v>
+        <v>3.5610731896064209E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18">
-      <c r="A17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="18">
       <c r="A18" s="6"/>
@@ -4111,15 +4252,15 @@
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2">
-        <v>132</v>
-      </c>
-      <c r="C19" s="2">
-        <v>40</v>
+      <c r="B19" s="8">
+        <v>127</v>
+      </c>
+      <c r="C19" s="9">
+        <v>35</v>
       </c>
       <c r="D19" s="2">
         <f>表1_458[[#This Row],[ARB]]/表1_458[[#This Row],[Wheel]]</f>
-        <v>0.30303030303030304</v>
+        <v>0.27559055118110237</v>
       </c>
       <c r="E19" s="3">
         <v>163</v>
@@ -4129,7 +4270,7 @@
       </c>
       <c r="G19" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>3.4239036836048391E-2</v>
+        <v>3.1138651610736923E-2</v>
       </c>
       <c r="I19">
         <v>223</v>
@@ -4145,15 +4286,15 @@
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="2">
-        <v>132</v>
-      </c>
-      <c r="C20" s="2">
-        <v>48</v>
+      <c r="B20" s="8">
+        <v>127</v>
+      </c>
+      <c r="C20" s="9">
+        <v>42</v>
       </c>
       <c r="D20" s="2">
         <f>表1_458[[#This Row],[ARB]]/表1_458[[#This Row],[Wheel]]</f>
-        <v>0.36363636363636365</v>
+        <v>0.33070866141732286</v>
       </c>
       <c r="E20" s="3">
         <v>163</v>
@@ -4163,7 +4304,7 @@
       </c>
       <c r="G20" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>4.1086844203258074E-2</v>
+        <v>3.7366381932884309E-2</v>
       </c>
       <c r="I20">
         <v>238</v>
@@ -4176,15 +4317,15 @@
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2">
-        <v>132</v>
-      </c>
-      <c r="C21" s="5">
-        <v>51</v>
+      <c r="B21" s="8">
+        <v>127</v>
+      </c>
+      <c r="C21" s="10">
+        <v>46</v>
       </c>
       <c r="D21" s="5">
         <f>表1_458[[#This Row],[ARB]]/表1_458[[#This Row],[Wheel]]</f>
-        <v>0.38636363636363635</v>
+        <v>0.36220472440944884</v>
       </c>
       <c r="E21" s="3">
         <v>163</v>
@@ -4194,22 +4335,22 @@
       </c>
       <c r="G21" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>4.3654771965961695E-2</v>
+        <v>4.0925084974111389E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18">
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="2">
-        <v>138</v>
-      </c>
-      <c r="C22" s="5">
-        <v>54</v>
+      <c r="B22" s="11">
+        <v>136</v>
+      </c>
+      <c r="C22" s="10">
+        <v>41</v>
       </c>
       <c r="D22" s="5">
         <f>表1_458[[#This Row],[ARB]]/表1_458[[#This Row],[Wheel]]</f>
-        <v>0.39130434782608697</v>
+        <v>0.3014705882352941</v>
       </c>
       <c r="E22" s="4">
         <v>154</v>
@@ -4219,22 +4360,22 @@
       </c>
       <c r="G22" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>5.2963693562225467E-2</v>
+        <v>4.0804544958479252E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="2">
-        <v>138</v>
-      </c>
-      <c r="C23" s="5">
-        <v>61</v>
+      <c r="B23" s="11">
+        <v>136</v>
+      </c>
+      <c r="C23" s="10">
+        <v>49</v>
       </c>
       <c r="D23" s="5">
         <f>表1_458[[#This Row],[ARB]]/表1_458[[#This Row],[Wheel]]</f>
-        <v>0.4420289855072464</v>
+        <v>0.36029411764705882</v>
       </c>
       <c r="E23" s="4">
         <v>154</v>
@@ -4244,22 +4385,22 @@
       </c>
       <c r="G23" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>5.9829357542513957E-2</v>
+        <v>4.8766407389402043E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18">
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2">
-        <v>138</v>
-      </c>
-      <c r="C24" s="5">
-        <v>66</v>
+      <c r="B24" s="11">
+        <v>136</v>
+      </c>
+      <c r="C24" s="12">
+        <v>54</v>
       </c>
       <c r="D24" s="5">
         <f>表1_458[[#This Row],[ARB]]/表1_458[[#This Row],[Wheel]]</f>
-        <v>0.47826086956521741</v>
+        <v>0.39705882352941174</v>
       </c>
       <c r="E24" s="4">
         <v>154</v>
@@ -4269,7 +4410,7 @@
       </c>
       <c r="G24" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>6.473340324272002E-2</v>
+        <v>5.3742571408728783E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4293,8 +4434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53A2CF9-C721-44C5-8A93-F91D726F5388}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+    <sheetView zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4309,15 +4450,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="18">
       <c r="A2" s="6" t="s">
@@ -4346,100 +4487,100 @@
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>122</v>
-      </c>
-      <c r="C3" s="2">
-        <v>33</v>
+      <c r="B3" s="8">
+        <v>126</v>
+      </c>
+      <c r="C3" s="9">
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <f>表1[[#This Row],[ARB]]/表1[[#This Row],[Wheel]]</f>
-        <v>0.27049180327868855</v>
+        <v>0.25396825396825395</v>
       </c>
       <c r="E3" s="3">
         <v>163</v>
       </c>
       <c r="F3" s="2">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="G3" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>1.0221452463088686E-2</v>
+        <v>9.7882303460232623E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>122</v>
-      </c>
-      <c r="C4" s="2">
-        <v>41</v>
+      <c r="B4" s="8">
+        <v>126</v>
+      </c>
+      <c r="C4" s="9">
+        <v>40</v>
       </c>
       <c r="D4" s="2">
         <f>表1[[#This Row],[ARB]]/表1[[#This Row],[Wheel]]</f>
-        <v>0.33606557377049179</v>
+        <v>0.31746031746031744</v>
       </c>
       <c r="E4" s="3">
         <v>163</v>
       </c>
       <c r="F4" s="2">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="G4" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>1.2699380332928365E-2</v>
+        <v>1.2235287932529077E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>122</v>
-      </c>
-      <c r="C5" s="5">
-        <v>46</v>
+      <c r="B5" s="8">
+        <v>126</v>
+      </c>
+      <c r="C5" s="10">
+        <v>45</v>
       </c>
       <c r="D5" s="5">
         <f>表1[[#This Row],[ARB]]/表1[[#This Row],[Wheel]]</f>
-        <v>0.37704918032786883</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="E5" s="3">
         <v>163</v>
       </c>
       <c r="F5" s="2">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="G5" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>1.4248085251578167E-2</v>
+        <v>1.3764698924095214E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>122</v>
-      </c>
-      <c r="C6" s="5">
-        <v>47</v>
+      <c r="B6" s="8">
+        <v>127</v>
+      </c>
+      <c r="C6" s="10">
+        <v>39</v>
       </c>
       <c r="D6" s="5">
         <f>表1[[#This Row],[ARB]]/表1[[#This Row],[Wheel]]</f>
-        <v>0.38524590163934425</v>
+        <v>0.30708661417322836</v>
       </c>
       <c r="E6" s="4">
         <v>154</v>
       </c>
       <c r="F6" s="5">
-        <v>1256</v>
+        <v>1406</v>
       </c>
       <c r="G6" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>2.0402633347065959E-2</v>
+        <v>1.8205590298851368E-2</v>
       </c>
       <c r="K6">
         <v>16</v>
@@ -4449,25 +4590,25 @@
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>122</v>
-      </c>
-      <c r="C7" s="5">
-        <v>55</v>
+      <c r="B7" s="8">
+        <v>127</v>
+      </c>
+      <c r="C7" s="10">
+        <v>47</v>
       </c>
       <c r="D7" s="5">
         <f>表1[[#This Row],[ARB]]/表1[[#This Row],[Wheel]]</f>
-        <v>0.45081967213114754</v>
+        <v>0.37007874015748032</v>
       </c>
       <c r="E7" s="4">
         <v>154</v>
       </c>
       <c r="F7" s="5">
-        <v>1256</v>
+        <v>1406</v>
       </c>
       <c r="G7" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>2.3875422001885704E-2</v>
+        <v>2.1940070360154214E-2</v>
       </c>
       <c r="K7">
         <v>23</v>
@@ -4477,40 +4618,40 @@
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>122</v>
-      </c>
-      <c r="C8" s="5">
-        <v>59</v>
+      <c r="B8" s="11">
+        <v>127</v>
+      </c>
+      <c r="C8" s="12">
+        <v>51</v>
       </c>
       <c r="D8" s="5">
         <f>表1[[#This Row],[ARB]]/表1[[#This Row],[Wheel]]</f>
-        <v>0.48360655737704916</v>
+        <v>0.40157480314960631</v>
       </c>
       <c r="E8" s="4">
         <v>154</v>
       </c>
       <c r="F8" s="5">
-        <v>1256</v>
+        <v>1406</v>
       </c>
       <c r="G8" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>2.5611816329295569E-2</v>
+        <v>2.3807310390805636E-2</v>
       </c>
       <c r="K8">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="18">
       <c r="A10" s="6"/>
@@ -4537,15 +4678,15 @@
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>122</v>
-      </c>
-      <c r="C11" s="2">
-        <v>33</v>
+      <c r="B11" s="8">
+        <v>126</v>
+      </c>
+      <c r="C11" s="9">
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <f>表1_4[[#This Row],[ARB]]/表1_4[[#This Row],[Wheel]]</f>
-        <v>0.27049180327868855</v>
+        <v>0.25396825396825395</v>
       </c>
       <c r="E11" s="3">
         <v>163</v>
@@ -4555,22 +4696,22 @@
       </c>
       <c r="G11" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>1.8416939746740472E-2</v>
+        <v>1.729190302339461E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>122</v>
-      </c>
-      <c r="C12" s="2">
-        <v>41</v>
+      <c r="B12" s="8">
+        <v>126</v>
+      </c>
+      <c r="C12" s="9">
+        <v>40</v>
       </c>
       <c r="D12" s="2">
         <f>表1_4[[#This Row],[ARB]]/表1_4[[#This Row],[Wheel]]</f>
-        <v>0.33606557377049179</v>
+        <v>0.31746031746031744</v>
       </c>
       <c r="E12" s="3">
         <v>163</v>
@@ -4580,22 +4721,22 @@
       </c>
       <c r="G12" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>2.2881652412616946E-2</v>
+        <v>2.1614878779243261E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>122</v>
-      </c>
-      <c r="C13" s="5">
-        <v>46</v>
+      <c r="B13" s="8">
+        <v>126</v>
+      </c>
+      <c r="C13" s="10">
+        <v>45</v>
       </c>
       <c r="D13" s="5">
         <f>表1_4[[#This Row],[ARB]]/表1_4[[#This Row],[Wheel]]</f>
-        <v>0.37704918032786883</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="E13" s="3">
         <v>163</v>
@@ -4605,22 +4746,22 @@
       </c>
       <c r="G13" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>2.5672097828789747E-2</v>
+        <v>2.4316738626648671E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2">
-        <v>122</v>
-      </c>
-      <c r="C14" s="5">
-        <v>47</v>
+      <c r="B14" s="8">
+        <v>127</v>
+      </c>
+      <c r="C14" s="10">
+        <v>39</v>
       </c>
       <c r="D14" s="5">
         <f>表1_4[[#This Row],[ARB]]/表1_4[[#This Row],[Wheel]]</f>
-        <v>0.38524590163934425</v>
+        <v>0.30708661417322836</v>
       </c>
       <c r="E14" s="4">
         <v>154</v>
@@ -4630,22 +4771,22 @@
       </c>
       <c r="G14" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>3.4551274784402314E-2</v>
+        <v>2.7541458439300757E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2">
-        <v>122</v>
-      </c>
-      <c r="C15" s="5">
-        <v>55</v>
+      <c r="B15" s="8">
+        <v>127</v>
+      </c>
+      <c r="C15" s="10">
+        <v>47</v>
       </c>
       <c r="D15" s="5">
         <f>表1_4[[#This Row],[ARB]]/表1_4[[#This Row],[Wheel]]</f>
-        <v>0.45081967213114754</v>
+        <v>0.37007874015748032</v>
       </c>
       <c r="E15" s="4">
         <v>154</v>
@@ -4655,22 +4796,22 @@
       </c>
       <c r="G15" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>4.0432342832811219E-2</v>
+        <v>3.3190988375567575E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2">
-        <v>122</v>
-      </c>
-      <c r="C16" s="5">
-        <v>59</v>
+      <c r="B16" s="11">
+        <v>127</v>
+      </c>
+      <c r="C16" s="12">
+        <v>51</v>
       </c>
       <c r="D16" s="5">
         <f>表1_4[[#This Row],[ARB]]/表1_4[[#This Row],[Wheel]]</f>
-        <v>0.48360655737704916</v>
+        <v>0.40157480314960631</v>
       </c>
       <c r="E16" s="4">
         <v>154</v>
@@ -4680,19 +4821,19 @@
       </c>
       <c r="G16" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>4.3372876857015671E-2</v>
+        <v>3.6015753343700989E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18">
-      <c r="A17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="18">
       <c r="A18" s="6"/>
@@ -4719,15 +4860,15 @@
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2">
-        <v>122</v>
-      </c>
-      <c r="C19" s="2">
-        <v>33</v>
+      <c r="B19" s="8">
+        <v>126</v>
+      </c>
+      <c r="C19" s="9">
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <f>表1_45[[#This Row],[ARB]]/表1_45[[#This Row],[Wheel]]</f>
-        <v>0.27049180327868855</v>
+        <v>0.25396825396825395</v>
       </c>
       <c r="E19" s="3">
         <v>163</v>
@@ -4737,22 +4878,22 @@
       </c>
       <c r="G19" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>3.0562550093816965E-2</v>
+        <v>2.8695573729259599E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="2">
-        <v>122</v>
-      </c>
-      <c r="C20" s="2">
-        <v>41</v>
+      <c r="B20" s="8">
+        <v>126</v>
+      </c>
+      <c r="C20" s="9">
+        <v>40</v>
       </c>
       <c r="D20" s="2">
         <f>表1_45[[#This Row],[ARB]]/表1_45[[#This Row],[Wheel]]</f>
-        <v>0.33606557377049179</v>
+        <v>0.31746031746031744</v>
       </c>
       <c r="E20" s="3">
         <v>163</v>
@@ -4762,22 +4903,22 @@
       </c>
       <c r="G20" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>3.7971653146863495E-2</v>
+        <v>3.5869467161574506E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18">
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2">
-        <v>122</v>
-      </c>
-      <c r="C21" s="5">
-        <v>46</v>
+      <c r="B21" s="8">
+        <v>126</v>
+      </c>
+      <c r="C21" s="10">
+        <v>45</v>
       </c>
       <c r="D21" s="5">
         <f>表1_45[[#This Row],[ARB]]/表1_45[[#This Row],[Wheel]]</f>
-        <v>0.37704918032786883</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="E21" s="3">
         <v>163</v>
@@ -4787,22 +4928,22 @@
       </c>
       <c r="G21" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>4.2602342555017589E-2</v>
+        <v>4.0353150556771321E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18">
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="2">
-        <v>122</v>
-      </c>
-      <c r="C22" s="5">
-        <v>47</v>
+      <c r="B22" s="8">
+        <v>127</v>
+      </c>
+      <c r="C22" s="10">
+        <v>39</v>
       </c>
       <c r="D22" s="5">
         <f>表1_45[[#This Row],[ARB]]/表1_45[[#This Row],[Wheel]]</f>
-        <v>0.38524590163934425</v>
+        <v>0.30708661417322836</v>
       </c>
       <c r="E22" s="4">
         <v>154</v>
@@ -4812,22 +4953,22 @@
       </c>
       <c r="G22" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>5.2143672805797563E-2</v>
+        <v>4.1564683399226816E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="2">
-        <v>122</v>
-      </c>
-      <c r="C23" s="5">
-        <v>55</v>
+      <c r="B23" s="8">
+        <v>127</v>
+      </c>
+      <c r="C23" s="10">
+        <v>47</v>
       </c>
       <c r="D23" s="5">
         <f>表1_45[[#This Row],[ARB]]/表1_45[[#This Row],[Wheel]]</f>
-        <v>0.45081967213114754</v>
+        <v>0.37007874015748032</v>
       </c>
       <c r="E23" s="4">
         <v>154</v>
@@ -4837,22 +4978,22 @@
       </c>
       <c r="G23" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>6.1019191581252477E-2</v>
+        <v>5.0090772301632308E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18">
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2">
-        <v>122</v>
-      </c>
-      <c r="C24" s="5">
-        <v>59</v>
+      <c r="B24" s="11">
+        <v>127</v>
+      </c>
+      <c r="C24" s="12">
+        <v>51</v>
       </c>
       <c r="D24" s="5">
         <f>表1_45[[#This Row],[ARB]]/表1_45[[#This Row],[Wheel]]</f>
-        <v>0.48360655737704916</v>
+        <v>0.40157480314960631</v>
       </c>
       <c r="E24" s="4">
         <v>154</v>
@@ -4862,7 +5003,7 @@
       </c>
       <c r="G24" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>6.5456950968979924E-2</v>
+        <v>5.4353816752835064E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/ARB Stiffness Map.xlsx
+++ b/Docs/ARB Stiffness Map.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d030e980fc414b5/Documents/BeamNG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1238" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{324FF12E-5C9A-4E70-B917-BD330A1D7DBD}"/>
+  <xr:revisionPtr revIDLastSave="1342" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95D746D4-6EAD-4EA3-AD1F-7F11FF12C4AA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{D4416D72-3604-43CB-A686-6E38D6CE2DE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D4416D72-3604-43CB-A686-6E38D6CE2DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tarmac" sheetId="2" r:id="rId1"/>
     <sheet name="Gravel" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,15 +103,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13.41/14.51mm</t>
+    <t>16.4/17.9mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15.88/16.58mm</t>
+    <t>19.2/20.3mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18.42/18.87mm</t>
+    <t>13.7/15.6mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1486,31 +1485,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0621578697333314E-2</c:v>
+                  <c:v>8.6611505979231618E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2745894436799979E-2</c:v>
+                  <c:v>1.0393380717507795E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3959789145066641E-2</c:v>
+                  <c:v>1.1383226500127583E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8764097522925745E-2</c:v>
+                  <c:v>1.7509008633885385E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2516917027510897E-2</c:v>
+                  <c:v>2.1010810360662463E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4661385315845271E-2</c:v>
+                  <c:v>2.3011839918820793E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1138651610736923E-2</c:v>
+                  <c:v>3.2435231041563747E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7366381932884309E-2</c:v>
+                  <c:v>3.8922277249876493E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0925084974111389E-2</c:v>
+                  <c:v>4.262916079748378E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,31 +1578,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.7872644925738888E-2</c:v>
+                  <c:v>1.8088743761967598E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1359990277102576E-2</c:v>
+                  <c:v>2.1618254739912496E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3539581121704879E-2</c:v>
+                  <c:v>2.3824199101128055E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.703777792108579E-2</c:v>
+                  <c:v>2.9707234133322751E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2313441905687898E-2</c:v>
+                  <c:v>3.5503767622751578E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5610731896064209E-2</c:v>
+                  <c:v>3.91266010536446E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0804544958479252E-2</c:v>
+                  <c:v>4.9918831168831168E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8766407389402043E-2</c:v>
+                  <c:v>5.9659090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3742571408728783E-2</c:v>
+                  <c:v>6.5746753246753248E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1930,31 +1929,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.7882303460232623E-3</c:v>
+                  <c:v>7.9816136122357658E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2235287932529077E-2</c:v>
+                  <c:v>9.977017015294706E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3764698924095214E-2</c:v>
+                  <c:v>1.1224144142206545E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.729190302339461E-2</c:v>
+                  <c:v>1.6135285961022719E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1614878779243261E-2</c:v>
+                  <c:v>2.0169107451278399E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4316738626648671E-2</c:v>
+                  <c:v>2.2690245882688202E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8695573729259599E-2</c:v>
+                  <c:v>2.9890426066420644E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5869467161574506E-2</c:v>
+                  <c:v>3.7363032583025806E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0353150556771321E-2</c:v>
+                  <c:v>4.2033411655904032E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2023,31 +2022,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.8205590298851368E-2</c:v>
+                  <c:v>1.8425714790373752E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1940070360154214E-2</c:v>
+                  <c:v>2.2205348593527345E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3807310390805636E-2</c:v>
+                  <c:v>2.409516549510414E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7541458439300757E-2</c:v>
+                  <c:v>3.0260643334577279E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3190988375567575E-2</c:v>
+                  <c:v>3.6467954787823893E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6015753343700989E-2</c:v>
+                  <c:v>3.9571610514447207E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1564683399226816E-2</c:v>
+                  <c:v>5.0848757541670932E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0090772301632308E-2</c:v>
+                  <c:v>6.1279271909193168E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4353816752835064E-2</c:v>
+                  <c:v>6.6494529092954294E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3838,7 +3837,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3854,7 +3853,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3902,11 +3901,11 @@
         <v>163</v>
       </c>
       <c r="F3" s="2">
-        <v>1024</v>
+        <v>835</v>
       </c>
       <c r="G3" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>1.0621578697333314E-2</v>
+        <v>8.6611505979231618E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18">
@@ -3927,11 +3926,11 @@
         <v>163</v>
       </c>
       <c r="F4" s="2">
-        <v>1024</v>
+        <v>835</v>
       </c>
       <c r="G4" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>1.2745894436799979E-2</v>
+        <v>1.0393380717507795E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18">
@@ -3952,11 +3951,11 @@
         <v>163</v>
       </c>
       <c r="F5" s="2">
-        <v>1024</v>
+        <v>835</v>
       </c>
       <c r="G5" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>1.3959789145066641E-2</v>
+        <v>1.1383226500127583E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18">
@@ -3977,11 +3976,11 @@
         <v>154</v>
       </c>
       <c r="F6" s="5">
-        <v>1406</v>
+        <v>1423</v>
       </c>
       <c r="G6" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>1.7872644925738888E-2</v>
+        <v>1.8088743761967598E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18">
@@ -4002,11 +4001,11 @@
         <v>154</v>
       </c>
       <c r="F7" s="5">
-        <v>1406</v>
+        <v>1423</v>
       </c>
       <c r="G7" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>2.1359990277102576E-2</v>
+        <v>2.1618254739912496E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18">
@@ -4027,16 +4026,16 @@
         <v>154</v>
       </c>
       <c r="F8" s="5">
-        <v>1406</v>
+        <v>1423</v>
       </c>
       <c r="G8" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>2.3539581121704879E-2</v>
+        <v>2.3824199101128055E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18">
       <c r="A9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -4084,11 +4083,11 @@
         <v>163</v>
       </c>
       <c r="F11" s="2">
-        <v>1809</v>
+        <v>1688</v>
       </c>
       <c r="G11" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>1.8764097522925745E-2</v>
+        <v>1.7509008633885385E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18">
@@ -4109,11 +4108,11 @@
         <v>163</v>
       </c>
       <c r="F12" s="2">
-        <v>1809</v>
+        <v>1688</v>
       </c>
       <c r="G12" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>2.2516917027510897E-2</v>
+        <v>2.1010810360662463E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18">
@@ -4134,11 +4133,11 @@
         <v>163</v>
       </c>
       <c r="F13" s="2">
-        <v>1809</v>
+        <v>1688</v>
       </c>
       <c r="G13" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>2.4661385315845271E-2</v>
+        <v>2.3011839918820793E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18">
@@ -4159,11 +4158,11 @@
         <v>154</v>
       </c>
       <c r="F14" s="5">
-        <v>2127</v>
+        <v>2337</v>
       </c>
       <c r="G14" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>2.703777792108579E-2</v>
+        <v>2.9707234133322751E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18">
@@ -4184,11 +4183,11 @@
         <v>154</v>
       </c>
       <c r="F15" s="5">
-        <v>2127</v>
+        <v>2337</v>
       </c>
       <c r="G15" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>3.2313441905687898E-2</v>
+        <v>3.5503767622751578E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18">
@@ -4209,16 +4208,16 @@
         <v>154</v>
       </c>
       <c r="F16" s="5">
-        <v>2127</v>
+        <v>2337</v>
       </c>
       <c r="G16" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>3.5610731896064209E-2</v>
+        <v>3.91266010536446E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18">
       <c r="A17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -4266,11 +4265,11 @@
         <v>163</v>
       </c>
       <c r="F19" s="2">
-        <v>3002</v>
+        <v>3127</v>
       </c>
       <c r="G19" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>3.1138651610736923E-2</v>
+        <v>3.2435231041563747E-2</v>
       </c>
       <c r="I19">
         <v>223</v>
@@ -4300,11 +4299,11 @@
         <v>163</v>
       </c>
       <c r="F20" s="2">
-        <v>3002</v>
+        <v>3127</v>
       </c>
       <c r="G20" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>3.7366381932884309E-2</v>
+        <v>3.8922277249876493E-2</v>
       </c>
       <c r="I20">
         <v>238</v>
@@ -4331,11 +4330,11 @@
         <v>163</v>
       </c>
       <c r="F21" s="2">
-        <v>3002</v>
+        <v>3127</v>
       </c>
       <c r="G21" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>4.0925084974111389E-2</v>
+        <v>4.262916079748378E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18">
@@ -4356,11 +4355,11 @@
         <v>154</v>
       </c>
       <c r="F22" s="4">
-        <v>3210</v>
+        <v>3927</v>
       </c>
       <c r="G22" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>4.0804544958479252E-2</v>
+        <v>4.9918831168831168E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18">
@@ -4381,11 +4380,11 @@
         <v>154</v>
       </c>
       <c r="F23" s="4">
-        <v>3210</v>
+        <v>3927</v>
       </c>
       <c r="G23" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>4.8766407389402043E-2</v>
+        <v>5.9659090909090912E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18">
@@ -4406,11 +4405,11 @@
         <v>154</v>
       </c>
       <c r="F24" s="4">
-        <v>3210</v>
+        <v>3927</v>
       </c>
       <c r="G24" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>5.3742571408728783E-2</v>
+        <v>6.5746753246753248E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4434,8 +4433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53A2CF9-C721-44C5-8A93-F91D726F5388}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4451,7 +4450,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -4501,11 +4500,11 @@
         <v>163</v>
       </c>
       <c r="F3" s="2">
-        <v>1024</v>
+        <v>835</v>
       </c>
       <c r="G3" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>9.7882303460232623E-3</v>
+        <v>7.9816136122357658E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18">
@@ -4526,11 +4525,11 @@
         <v>163</v>
       </c>
       <c r="F4" s="2">
-        <v>1024</v>
+        <v>835</v>
       </c>
       <c r="G4" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>1.2235287932529077E-2</v>
+        <v>9.977017015294706E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18">
@@ -4551,11 +4550,11 @@
         <v>163</v>
       </c>
       <c r="F5" s="2">
-        <v>1024</v>
+        <v>835</v>
       </c>
       <c r="G5" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>1.3764698924095214E-2</v>
+        <v>1.1224144142206545E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18">
@@ -4576,11 +4575,11 @@
         <v>154</v>
       </c>
       <c r="F6" s="5">
-        <v>1406</v>
+        <v>1423</v>
       </c>
       <c r="G6" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>1.8205590298851368E-2</v>
+        <v>1.8425714790373752E-2</v>
       </c>
       <c r="K6">
         <v>16</v>
@@ -4604,11 +4603,11 @@
         <v>154</v>
       </c>
       <c r="F7" s="5">
-        <v>1406</v>
+        <v>1423</v>
       </c>
       <c r="G7" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>2.1940070360154214E-2</v>
+        <v>2.2205348593527345E-2</v>
       </c>
       <c r="K7">
         <v>23</v>
@@ -4632,11 +4631,11 @@
         <v>154</v>
       </c>
       <c r="F8" s="5">
-        <v>1406</v>
+        <v>1423</v>
       </c>
       <c r="G8" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>2.3807310390805636E-2</v>
+        <v>2.409516549510414E-2</v>
       </c>
       <c r="K8">
         <v>24</v>
@@ -4644,7 +4643,7 @@
     </row>
     <row r="9" spans="1:11" ht="18">
       <c r="A9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -4692,11 +4691,11 @@
         <v>163</v>
       </c>
       <c r="F11" s="2">
-        <v>1809</v>
+        <v>1688</v>
       </c>
       <c r="G11" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>1.729190302339461E-2</v>
+        <v>1.6135285961022719E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18">
@@ -4717,11 +4716,11 @@
         <v>163</v>
       </c>
       <c r="F12" s="2">
-        <v>1809</v>
+        <v>1688</v>
       </c>
       <c r="G12" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>2.1614878779243261E-2</v>
+        <v>2.0169107451278399E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18">
@@ -4742,11 +4741,11 @@
         <v>163</v>
       </c>
       <c r="F13" s="2">
-        <v>1809</v>
+        <v>1688</v>
       </c>
       <c r="G13" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>2.4316738626648671E-2</v>
+        <v>2.2690245882688202E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18">
@@ -4767,11 +4766,11 @@
         <v>154</v>
       </c>
       <c r="F14" s="5">
-        <v>2127</v>
+        <v>2337</v>
       </c>
       <c r="G14" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>2.7541458439300757E-2</v>
+        <v>3.0260643334577279E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18">
@@ -4792,11 +4791,11 @@
         <v>154</v>
       </c>
       <c r="F15" s="5">
-        <v>2127</v>
+        <v>2337</v>
       </c>
       <c r="G15" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>3.3190988375567575E-2</v>
+        <v>3.6467954787823893E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18">
@@ -4817,16 +4816,16 @@
         <v>154</v>
       </c>
       <c r="F16" s="5">
-        <v>2127</v>
+        <v>2337</v>
       </c>
       <c r="G16" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>3.6015753343700989E-2</v>
+        <v>3.9571610514447207E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18">
       <c r="A17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -4874,11 +4873,11 @@
         <v>163</v>
       </c>
       <c r="F19" s="2">
-        <v>3002</v>
+        <v>3127</v>
       </c>
       <c r="G19" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>2.8695573729259599E-2</v>
+        <v>2.9890426066420644E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18">
@@ -4899,11 +4898,11 @@
         <v>163</v>
       </c>
       <c r="F20" s="2">
-        <v>3002</v>
+        <v>3127</v>
       </c>
       <c r="G20" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>3.5869467161574506E-2</v>
+        <v>3.7363032583025806E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18">
@@ -4924,11 +4923,11 @@
         <v>163</v>
       </c>
       <c r="F21" s="2">
-        <v>3002</v>
+        <v>3127</v>
       </c>
       <c r="G21" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>4.0353150556771321E-2</v>
+        <v>4.2033411655904032E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18">
@@ -4949,11 +4948,11 @@
         <v>154</v>
       </c>
       <c r="F22" s="4">
-        <v>3210</v>
+        <v>3927</v>
       </c>
       <c r="G22" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>4.1564683399226816E-2</v>
+        <v>5.0848757541670932E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18">
@@ -4974,11 +4973,11 @@
         <v>154</v>
       </c>
       <c r="F23" s="4">
-        <v>3210</v>
+        <v>3927</v>
       </c>
       <c r="G23" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>5.0090772301632308E-2</v>
+        <v>6.1279271909193168E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18">
@@ -4999,11 +4998,11 @@
         <v>154</v>
       </c>
       <c r="F24" s="4">
-        <v>3210</v>
+        <v>3927</v>
       </c>
       <c r="G24" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>5.4353816752835064E-2</v>
+        <v>6.6494529092954294E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/ARB Stiffness Map.xlsx
+++ b/Docs/ARB Stiffness Map.xlsx
@@ -3837,7 +3837,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Docs/ARB Stiffness Map.xlsx
+++ b/Docs/ARB Stiffness Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d030e980fc414b5/Documents/BeamNG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1342" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95D746D4-6EAD-4EA3-AD1F-7F11FF12C4AA}"/>
+  <xr:revisionPtr revIDLastSave="1387" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01E2DE0A-2E4A-4F1B-B1A7-90DB1BEE1214}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D4416D72-3604-43CB-A686-6E38D6CE2DE9}"/>
   </bookViews>
@@ -103,15 +103,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16.4/17.9mm</t>
+    <t>14.6/16.2mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19.2/20.3mm</t>
+    <t>17.8/19.2mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13.7/15.6mm</t>
+    <t>20.7/21.7mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,6 +322,63 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="46">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -868,25 +925,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
         <color rgb="FF000000"/>
         <name val="等线"/>
         <scheme val="minor"/>
@@ -976,25 +1014,6 @@
           <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1157,25 +1176,6 @@
           <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1485,31 +1485,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8.6611505979231618E-3</c:v>
+                  <c:v>9.6984141425846184E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0393380717507795E-2</c:v>
+                  <c:v>1.1638096971101542E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1383226500127583E-2</c:v>
+                  <c:v>1.2746487158825499E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7509008633885385E-2</c:v>
+                  <c:v>2.0620799267869756E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1010810360662463E-2</c:v>
+                  <c:v>2.4744959121443706E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3011839918820793E-2</c:v>
+                  <c:v>2.7101621894914534E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2435231041563747E-2</c:v>
+                  <c:v>3.7621548764871025E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8922277249876493E-2</c:v>
+                  <c:v>4.5145858517845236E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.262916079748378E-2</c:v>
+                  <c:v>4.9445464090973348E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,22 +1587,22 @@
                   <c:v>2.3824199101128055E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9707234133322751E-2</c:v>
+                  <c:v>3.4308868175369316E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5503767622751578E-2</c:v>
+                  <c:v>4.1003281477880411E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.91266010536446E-2</c:v>
+                  <c:v>4.5187289791949831E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9918831168831168E-2</c:v>
+                  <c:v>5.6465354736936091E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9659090909090912E-2</c:v>
+                  <c:v>6.7482984929508993E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5746753246753248E-2</c:v>
+                  <c:v>7.4369003799867037E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,31 +1929,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.9816136122357658E-3</c:v>
+                  <c:v>8.9374954819646003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.977017015294706E-3</c:v>
+                  <c:v>1.117186935245575E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1224144142206545E-2</c:v>
+                  <c:v>1.256835302151272E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6135285961022719E-2</c:v>
+                  <c:v>1.9002931570209221E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0169107451278399E-2</c:v>
+                  <c:v>2.3753664462761528E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2690245882688202E-2</c:v>
+                  <c:v>2.6722872520606719E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9890426066420644E-2</c:v>
+                  <c:v>3.4669835415064819E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7363032583025806E-2</c:v>
+                  <c:v>4.3337294268831018E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2033411655904032E-2</c:v>
+                  <c:v>4.8754456052434905E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2031,22 +2031,22 @@
                   <c:v>2.409516549510414E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0260643334577279E-2</c:v>
+                  <c:v>3.4948000154053943E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6467954787823893E-2</c:v>
+                  <c:v>4.2116820698475263E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9571610514447207E-2</c:v>
+                  <c:v>4.5701230970685923E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0848757541670932E-2</c:v>
+                  <c:v>5.7517234784849054E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1279271909193168E-2</c:v>
+                  <c:v>6.9315641920202717E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6494529092954294E-2</c:v>
+                  <c:v>7.5214845487879545E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,8 +3413,8 @@
       <calculatedColumnFormula>表1_6[[#This Row],[ARB]]/表1_6[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{92304CA7-B80B-4E14-9D5E-DF1B530591D3}" name="CANTILEVER" dataDxfId="40"/>
-    <tableColumn id="15" xr3:uid="{33259B9F-E071-496E-9E0F-FFF4FB732FF2}" name="TORSION" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{D6344C61-2A9A-4E19-AA81-96BE88DF5F64}" name="NORMAL" dataDxfId="38">
+    <tableColumn id="15" xr3:uid="{33259B9F-E071-496E-9E0F-FFF4FB732FF2}" name="TORSION" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D6344C61-2A9A-4E19-AA81-96BE88DF5F64}" name="NORMAL" dataDxfId="39">
       <calculatedColumnFormula>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3423,17 +3423,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{85B164DE-ED54-4093-B3D1-3D06324DC7CD}" name="表1_47" displayName="表1_47" ref="B10:G16" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{85B164DE-ED54-4093-B3D1-3D06324DC7CD}" name="表1_47" displayName="表1_47" ref="B10:G16" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="B10:G16" xr:uid="{34C4E870-3033-4640-B8A2-3E1FBE4B7F1C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FAD72ABC-0066-4C42-A1AC-03A3728796E5}" name="Wheel" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{71EDC2A1-50A4-422B-B1EA-57AAB120DF86}" name="ARB" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{B198618F-C6AB-4943-88D8-B91E28D42407}" name="MOTION RATIO" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{FAD72ABC-0066-4C42-A1AC-03A3728796E5}" name="Wheel" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{71EDC2A1-50A4-422B-B1EA-57AAB120DF86}" name="ARB" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{B198618F-C6AB-4943-88D8-B91E28D42407}" name="MOTION RATIO" dataDxfId="34">
       <calculatedColumnFormula>表1_47[[#This Row],[ARB]]/表1_47[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0D950A5D-AE90-4CA8-B0FA-7C7669B74CD6}" name="CANTILEVER" dataDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{FD285504-685D-43B5-9C8F-A6479E55FAC6}" name="TORSION" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{5C8AE37F-186E-499F-B0E8-E35BA5E34290}" name="NORMAL" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{0D950A5D-AE90-4CA8-B0FA-7C7669B74CD6}" name="CANTILEVER" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{FD285504-685D-43B5-9C8F-A6479E55FAC6}" name="TORSION" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{5C8AE37F-186E-499F-B0E8-E35BA5E34290}" name="NORMAL" dataDxfId="32">
       <calculatedColumnFormula>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3442,17 +3442,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{83A6FC0C-7708-4022-A939-45EE4AD521DD}" name="表1_458" displayName="表1_458" ref="B18:G24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{83A6FC0C-7708-4022-A939-45EE4AD521DD}" name="表1_458" displayName="表1_458" ref="B18:G24" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="B18:G24" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{44F2A1F6-CC53-4052-BAF5-FEBE5AA593B1}" name="Wheel" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{9B3FCF63-702D-40CF-9D2D-EDEA09D00BC1}" name="ARB" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{51BC0E25-0E77-4001-BA6E-EBAFE70AEB41}" name="MOTION RATIO" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{44F2A1F6-CC53-4052-BAF5-FEBE5AA593B1}" name="Wheel" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{9B3FCF63-702D-40CF-9D2D-EDEA09D00BC1}" name="ARB" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{51BC0E25-0E77-4001-BA6E-EBAFE70AEB41}" name="MOTION RATIO" dataDxfId="27">
       <calculatedColumnFormula>表1_458[[#This Row],[ARB]]/表1_458[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4D3E5808-BFEB-47FF-ABED-535FB1EE40EB}" name="CANTILEVER" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{75717941-E6E8-45B1-A3F2-E5791D86F7A2}" name="TORSION" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{0A5F1668-A137-4A0C-8A4F-A027387CE002}" name="NORMAL" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{4D3E5808-BFEB-47FF-ABED-535FB1EE40EB}" name="CANTILEVER" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{75717941-E6E8-45B1-A3F2-E5791D86F7A2}" name="TORSION" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{0A5F1668-A137-4A0C-8A4F-A027387CE002}" name="NORMAL" dataDxfId="25">
       <calculatedColumnFormula>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3461,17 +3461,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D2A340A-0690-4DC8-927E-FE8D1BB734CB}" name="表1" displayName="表1" ref="B2:G8" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D2A340A-0690-4DC8-927E-FE8D1BB734CB}" name="表1" displayName="表1" ref="B2:G8" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="B2:G8" xr:uid="{3D2A340A-0690-4DC8-927E-FE8D1BB734CB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BA9E0710-49E4-4631-8796-9828152C79EE}" name="Wheel"/>
     <tableColumn id="2" xr3:uid="{A7265771-FFDE-4F9C-A20D-93503DF684C3}" name="ARB"/>
-    <tableColumn id="3" xr3:uid="{57924571-BD22-49F6-B47E-E7227CAD786C}" name="MOTION RATIO" dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{57924571-BD22-49F6-B47E-E7227CAD786C}" name="MOTION RATIO" dataDxfId="22">
       <calculatedColumnFormula>表1[[#This Row],[ARB]]/表1[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{968F555E-16ED-4EED-9489-491EA1BF772E}" name="CANTILEVER" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{573D6EAF-FDE3-4C6E-8E40-9F81E52EF9F5}" name="TORSION" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{EE2C02EC-821C-4B70-94B8-8337649055CF}" name="NORMAL" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{968F555E-16ED-4EED-9489-491EA1BF772E}" name="CANTILEVER" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{573D6EAF-FDE3-4C6E-8E40-9F81E52EF9F5}" name="TORSION" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{EE2C02EC-821C-4B70-94B8-8337649055CF}" name="NORMAL" dataDxfId="19">
       <calculatedColumnFormula>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3480,17 +3480,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{34C4E870-3033-4640-B8A2-3E1FBE4B7F1C}" name="表1_4" displayName="表1_4" ref="B10:G16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{34C4E870-3033-4640-B8A2-3E1FBE4B7F1C}" name="表1_4" displayName="表1_4" ref="B10:G16" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B10:G16" xr:uid="{34C4E870-3033-4640-B8A2-3E1FBE4B7F1C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{31D6B5A6-29F6-40D0-ABAA-E5059C36D1B5}" name="Wheel" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{3486DB28-9FB0-48EF-87CD-B65EF20F6F01}" name="ARB" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{6E023114-623D-4902-941F-35E1479B6411}" name="MOTION RATIO" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{31D6B5A6-29F6-40D0-ABAA-E5059C36D1B5}" name="Wheel" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{3486DB28-9FB0-48EF-87CD-B65EF20F6F01}" name="ARB" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{6E023114-623D-4902-941F-35E1479B6411}" name="MOTION RATIO" dataDxfId="14">
       <calculatedColumnFormula>表1_4[[#This Row],[ARB]]/表1_4[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1FB8ED05-3D86-4769-81DB-F0DBDB3CDE44}" name="CANTILEVER" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{1F17110F-EE9D-4BAE-9F87-AD8E1A304DBD}" name="TORSION" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{D6DEE0EA-ADFE-4C3D-9F50-924215005D24}" name="NORMAL" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{1FB8ED05-3D86-4769-81DB-F0DBDB3CDE44}" name="CANTILEVER" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{1F17110F-EE9D-4BAE-9F87-AD8E1A304DBD}" name="TORSION" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{D6DEE0EA-ADFE-4C3D-9F50-924215005D24}" name="NORMAL" dataDxfId="11">
       <calculatedColumnFormula>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3499,17 +3499,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}" name="表1_45" displayName="表1_45" ref="B18:G24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}" name="表1_45" displayName="表1_45" ref="B18:G24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="B18:G24" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D7B341F8-7760-4D85-A77A-B67E1F741D90}" name="Wheel" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0A9FF6E6-A324-450D-B137-3B47806EA86D}" name="ARB" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{137F4733-DE17-494E-9D05-D8BC09254548}" name="MOTION RATIO" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{D7B341F8-7760-4D85-A77A-B67E1F741D90}" name="Wheel" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0A9FF6E6-A324-450D-B137-3B47806EA86D}" name="ARB" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{137F4733-DE17-494E-9D05-D8BC09254548}" name="MOTION RATIO" dataDxfId="6">
       <calculatedColumnFormula>表1_45[[#This Row],[ARB]]/表1_45[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{402FC734-015E-48AD-9FFE-25F61C9EE630}" name="CANTILEVER" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{757504BF-2C1C-43B0-8007-2964AF0461ED}" name="TORSION" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{595E0B6D-3817-48BB-AE62-2A03988FE742}" name="NORMAL" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{402FC734-015E-48AD-9FFE-25F61C9EE630}" name="CANTILEVER" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{757504BF-2C1C-43B0-8007-2964AF0461ED}" name="TORSION" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{595E0B6D-3817-48BB-AE62-2A03988FE742}" name="NORMAL" dataDxfId="3">
       <calculatedColumnFormula>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3837,7 +3837,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A17" sqref="A17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3853,7 +3853,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3901,11 +3901,11 @@
         <v>163</v>
       </c>
       <c r="F3" s="2">
-        <v>835</v>
+        <v>935</v>
       </c>
       <c r="G3" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>8.6611505979231618E-3</v>
+        <v>9.6984141425846184E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18">
@@ -3926,11 +3926,11 @@
         <v>163</v>
       </c>
       <c r="F4" s="2">
-        <v>835</v>
+        <v>935</v>
       </c>
       <c r="G4" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>1.0393380717507795E-2</v>
+        <v>1.1638096971101542E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18">
@@ -3951,11 +3951,11 @@
         <v>163</v>
       </c>
       <c r="F5" s="2">
-        <v>835</v>
+        <v>935</v>
       </c>
       <c r="G5" s="2">
         <f>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</f>
-        <v>1.1383226500127583E-2</v>
+        <v>1.2746487158825499E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18">
@@ -4035,7 +4035,7 @@
     </row>
     <row r="9" spans="1:7" ht="18">
       <c r="A9" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -4083,11 +4083,11 @@
         <v>163</v>
       </c>
       <c r="F11" s="2">
-        <v>1688</v>
+        <v>1988</v>
       </c>
       <c r="G11" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>1.7509008633885385E-2</v>
+        <v>2.0620799267869756E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18">
@@ -4108,11 +4108,11 @@
         <v>163</v>
       </c>
       <c r="F12" s="2">
-        <v>1688</v>
+        <v>1988</v>
       </c>
       <c r="G12" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>2.1010810360662463E-2</v>
+        <v>2.4744959121443706E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18">
@@ -4133,11 +4133,11 @@
         <v>163</v>
       </c>
       <c r="F13" s="2">
-        <v>1688</v>
+        <v>1988</v>
       </c>
       <c r="G13" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>2.3011839918820793E-2</v>
+        <v>2.7101621894914534E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18">
@@ -4158,11 +4158,11 @@
         <v>154</v>
       </c>
       <c r="F14" s="5">
-        <v>2337</v>
+        <v>2699</v>
       </c>
       <c r="G14" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>2.9707234133322751E-2</v>
+        <v>3.4308868175369316E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18">
@@ -4183,11 +4183,11 @@
         <v>154</v>
       </c>
       <c r="F15" s="5">
-        <v>2337</v>
+        <v>2699</v>
       </c>
       <c r="G15" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>3.5503767622751578E-2</v>
+        <v>4.1003281477880411E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18">
@@ -4208,16 +4208,16 @@
         <v>154</v>
       </c>
       <c r="F16" s="5">
-        <v>2337</v>
+        <v>2699</v>
       </c>
       <c r="G16" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>3.91266010536446E-2</v>
+        <v>4.5187289791949831E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18">
       <c r="A17" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -4265,11 +4265,11 @@
         <v>163</v>
       </c>
       <c r="F19" s="2">
-        <v>3127</v>
+        <v>3627</v>
       </c>
       <c r="G19" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>3.2435231041563747E-2</v>
+        <v>3.7621548764871025E-2</v>
       </c>
       <c r="I19">
         <v>223</v>
@@ -4299,11 +4299,11 @@
         <v>163</v>
       </c>
       <c r="F20" s="2">
-        <v>3127</v>
+        <v>3627</v>
       </c>
       <c r="G20" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>3.8922277249876493E-2</v>
+        <v>4.5145858517845236E-2</v>
       </c>
       <c r="I20">
         <v>238</v>
@@ -4330,11 +4330,11 @@
         <v>163</v>
       </c>
       <c r="F21" s="2">
-        <v>3127</v>
+        <v>3627</v>
       </c>
       <c r="G21" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>4.262916079748378E-2</v>
+        <v>4.9445464090973348E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18">
@@ -4355,11 +4355,11 @@
         <v>154</v>
       </c>
       <c r="F22" s="4">
-        <v>3927</v>
+        <v>4442</v>
       </c>
       <c r="G22" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>4.9918831168831168E-2</v>
+        <v>5.6465354736936091E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18">
@@ -4380,11 +4380,11 @@
         <v>154</v>
       </c>
       <c r="F23" s="4">
-        <v>3927</v>
+        <v>4442</v>
       </c>
       <c r="G23" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>5.9659090909090912E-2</v>
+        <v>6.7482984929508993E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18">
@@ -4405,11 +4405,11 @@
         <v>154</v>
       </c>
       <c r="F24" s="4">
-        <v>3927</v>
+        <v>4442</v>
       </c>
       <c r="G24" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>6.5746753246753248E-2</v>
+        <v>7.4369003799867037E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4434,7 +4434,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F5"/>
+      <selection activeCell="A17" sqref="A17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4450,7 +4450,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -4500,11 +4500,11 @@
         <v>163</v>
       </c>
       <c r="F3" s="2">
-        <v>835</v>
+        <v>935</v>
       </c>
       <c r="G3" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>7.9816136122357658E-3</v>
+        <v>8.9374954819646003E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18">
@@ -4525,11 +4525,11 @@
         <v>163</v>
       </c>
       <c r="F4" s="2">
-        <v>835</v>
+        <v>935</v>
       </c>
       <c r="G4" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>9.977017015294706E-3</v>
+        <v>1.117186935245575E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18">
@@ -4550,11 +4550,11 @@
         <v>163</v>
       </c>
       <c r="F5" s="2">
-        <v>835</v>
+        <v>935</v>
       </c>
       <c r="G5" s="2">
         <f>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</f>
-        <v>1.1224144142206545E-2</v>
+        <v>1.256835302151272E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18">
@@ -4643,7 +4643,7 @@
     </row>
     <row r="9" spans="1:11" ht="18">
       <c r="A9" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -4691,11 +4691,11 @@
         <v>163</v>
       </c>
       <c r="F11" s="2">
-        <v>1688</v>
+        <v>1988</v>
       </c>
       <c r="G11" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>1.6135285961022719E-2</v>
+        <v>1.9002931570209221E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18">
@@ -4716,11 +4716,11 @@
         <v>163</v>
       </c>
       <c r="F12" s="2">
-        <v>1688</v>
+        <v>1988</v>
       </c>
       <c r="G12" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>2.0169107451278399E-2</v>
+        <v>2.3753664462761528E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18">
@@ -4741,11 +4741,11 @@
         <v>163</v>
       </c>
       <c r="F13" s="2">
-        <v>1688</v>
+        <v>1988</v>
       </c>
       <c r="G13" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>2.2690245882688202E-2</v>
+        <v>2.6722872520606719E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18">
@@ -4766,11 +4766,11 @@
         <v>154</v>
       </c>
       <c r="F14" s="5">
-        <v>2337</v>
+        <v>2699</v>
       </c>
       <c r="G14" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>3.0260643334577279E-2</v>
+        <v>3.4948000154053943E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18">
@@ -4791,11 +4791,11 @@
         <v>154</v>
       </c>
       <c r="F15" s="5">
-        <v>2337</v>
+        <v>2699</v>
       </c>
       <c r="G15" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>3.6467954787823893E-2</v>
+        <v>4.2116820698475263E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18">
@@ -4816,16 +4816,16 @@
         <v>154</v>
       </c>
       <c r="F16" s="5">
-        <v>2337</v>
+        <v>2699</v>
       </c>
       <c r="G16" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>3.9571610514447207E-2</v>
+        <v>4.5701230970685923E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18">
       <c r="A17" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -4873,11 +4873,11 @@
         <v>163</v>
       </c>
       <c r="F19" s="2">
-        <v>3127</v>
+        <v>3627</v>
       </c>
       <c r="G19" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>2.9890426066420644E-2</v>
+        <v>3.4669835415064819E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18">
@@ -4898,11 +4898,11 @@
         <v>163</v>
       </c>
       <c r="F20" s="2">
-        <v>3127</v>
+        <v>3627</v>
       </c>
       <c r="G20" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>3.7363032583025806E-2</v>
+        <v>4.3337294268831018E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18">
@@ -4923,11 +4923,11 @@
         <v>163</v>
       </c>
       <c r="F21" s="2">
-        <v>3127</v>
+        <v>3627</v>
       </c>
       <c r="G21" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>4.2033411655904032E-2</v>
+        <v>4.8754456052434905E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18">
@@ -4948,11 +4948,11 @@
         <v>154</v>
       </c>
       <c r="F22" s="4">
-        <v>3927</v>
+        <v>4442</v>
       </c>
       <c r="G22" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>5.0848757541670932E-2</v>
+        <v>5.7517234784849054E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18">
@@ -4973,11 +4973,11 @@
         <v>154</v>
       </c>
       <c r="F23" s="4">
-        <v>3927</v>
+        <v>4442</v>
       </c>
       <c r="G23" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>6.1279271909193168E-2</v>
+        <v>6.9315641920202717E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18">
@@ -4998,11 +4998,11 @@
         <v>154</v>
       </c>
       <c r="F24" s="4">
-        <v>3927</v>
+        <v>4442</v>
       </c>
       <c r="G24" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>6.6494529092954294E-2</v>
+        <v>7.5214845487879545E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/ARB Stiffness Map.xlsx
+++ b/Docs/ARB Stiffness Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d030e980fc414b5/Documents/BeamNG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1387" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01E2DE0A-2E4A-4F1B-B1A7-90DB1BEE1214}"/>
+  <xr:revisionPtr revIDLastSave="1418" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EBF5AC0-B5F4-4FCA-A279-209731C1602B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D4416D72-3604-43CB-A686-6E38D6CE2DE9}"/>
   </bookViews>
@@ -107,11 +107,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17.8/19.2mm</t>
+    <t>17.6/19.4mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20.7/21.7mm</t>
+    <t>20.5/22.1mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,44 +429,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
         <color rgb="FF000000"/>
         <name val="等线"/>
         <scheme val="minor"/>
@@ -556,25 +518,6 @@
           <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -925,6 +868,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <name val="等线"/>
         <scheme val="minor"/>
@@ -1014,6 +976,25 @@
           <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1176,6 +1157,25 @@
           <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1587,22 +1587,22 @@
                   <c:v>2.3824199101128055E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4308868175369316E-2</c:v>
+                  <c:v>3.7359675275068706E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1003281477880411E-2</c:v>
+                  <c:v>4.4649368011667474E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5187289791949831E-2</c:v>
+                  <c:v>4.9205425972041715E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6465354736936091E-2</c:v>
+                  <c:v>6.2439851973847382E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7482984929508993E-2</c:v>
+                  <c:v>7.4623237724842001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4369003799867037E-2</c:v>
+                  <c:v>8.2237853819213641E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2031,22 +2031,22 @@
                   <c:v>2.409516549510414E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4948000154053943E-2</c:v>
+                  <c:v>3.8055640034369967E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2116820698475263E-2</c:v>
+                  <c:v>4.5861925169625346E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5701230970685923E-2</c:v>
+                  <c:v>4.9765067737253026E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7517234784849054E-2</c:v>
+                  <c:v>6.360302955046794E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9315641920202717E-2</c:v>
+                  <c:v>7.6649804842871622E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5214845487879545E-2</c:v>
+                  <c:v>8.3173192489073455E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,8 +3413,8 @@
       <calculatedColumnFormula>表1_6[[#This Row],[ARB]]/表1_6[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{92304CA7-B80B-4E14-9D5E-DF1B530591D3}" name="CANTILEVER" dataDxfId="40"/>
-    <tableColumn id="15" xr3:uid="{33259B9F-E071-496E-9E0F-FFF4FB732FF2}" name="TORSION" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{D6344C61-2A9A-4E19-AA81-96BE88DF5F64}" name="NORMAL" dataDxfId="39">
+    <tableColumn id="15" xr3:uid="{33259B9F-E071-496E-9E0F-FFF4FB732FF2}" name="TORSION" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{D6344C61-2A9A-4E19-AA81-96BE88DF5F64}" name="NORMAL" dataDxfId="38">
       <calculatedColumnFormula>表1_6[[#This Row],[MOTION RATIO]]*表1_6[[#This Row],[TORSION]]/表1_6[[#This Row],[CANTILEVER]]/表1_6[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3423,17 +3423,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{85B164DE-ED54-4093-B3D1-3D06324DC7CD}" name="表1_47" displayName="表1_47" ref="B10:G16" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{85B164DE-ED54-4093-B3D1-3D06324DC7CD}" name="表1_47" displayName="表1_47" ref="B10:G16" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="B10:G16" xr:uid="{34C4E870-3033-4640-B8A2-3E1FBE4B7F1C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FAD72ABC-0066-4C42-A1AC-03A3728796E5}" name="Wheel" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{71EDC2A1-50A4-422B-B1EA-57AAB120DF86}" name="ARB" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{B198618F-C6AB-4943-88D8-B91E28D42407}" name="MOTION RATIO" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{FAD72ABC-0066-4C42-A1AC-03A3728796E5}" name="Wheel" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{71EDC2A1-50A4-422B-B1EA-57AAB120DF86}" name="ARB" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{B198618F-C6AB-4943-88D8-B91E28D42407}" name="MOTION RATIO" dataDxfId="33">
       <calculatedColumnFormula>表1_47[[#This Row],[ARB]]/表1_47[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0D950A5D-AE90-4CA8-B0FA-7C7669B74CD6}" name="CANTILEVER" dataDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{FD285504-685D-43B5-9C8F-A6479E55FAC6}" name="TORSION" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{5C8AE37F-186E-499F-B0E8-E35BA5E34290}" name="NORMAL" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{0D950A5D-AE90-4CA8-B0FA-7C7669B74CD6}" name="CANTILEVER" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{FD285504-685D-43B5-9C8F-A6479E55FAC6}" name="TORSION" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{5C8AE37F-186E-499F-B0E8-E35BA5E34290}" name="NORMAL" dataDxfId="30">
       <calculatedColumnFormula>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3442,17 +3442,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{83A6FC0C-7708-4022-A939-45EE4AD521DD}" name="表1_458" displayName="表1_458" ref="B18:G24" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{83A6FC0C-7708-4022-A939-45EE4AD521DD}" name="表1_458" displayName="表1_458" ref="B18:G24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B18:G24" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{44F2A1F6-CC53-4052-BAF5-FEBE5AA593B1}" name="Wheel" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{9B3FCF63-702D-40CF-9D2D-EDEA09D00BC1}" name="ARB" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{51BC0E25-0E77-4001-BA6E-EBAFE70AEB41}" name="MOTION RATIO" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{44F2A1F6-CC53-4052-BAF5-FEBE5AA593B1}" name="Wheel" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{9B3FCF63-702D-40CF-9D2D-EDEA09D00BC1}" name="ARB" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{51BC0E25-0E77-4001-BA6E-EBAFE70AEB41}" name="MOTION RATIO" dataDxfId="25">
       <calculatedColumnFormula>表1_458[[#This Row],[ARB]]/表1_458[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4D3E5808-BFEB-47FF-ABED-535FB1EE40EB}" name="CANTILEVER" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{75717941-E6E8-45B1-A3F2-E5791D86F7A2}" name="TORSION" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{0A5F1668-A137-4A0C-8A4F-A027387CE002}" name="NORMAL" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{4D3E5808-BFEB-47FF-ABED-535FB1EE40EB}" name="CANTILEVER" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{75717941-E6E8-45B1-A3F2-E5791D86F7A2}" name="TORSION" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{0A5F1668-A137-4A0C-8A4F-A027387CE002}" name="NORMAL" dataDxfId="22">
       <calculatedColumnFormula>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3461,17 +3461,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D2A340A-0690-4DC8-927E-FE8D1BB734CB}" name="表1" displayName="表1" ref="B2:G8" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D2A340A-0690-4DC8-927E-FE8D1BB734CB}" name="表1" displayName="表1" ref="B2:G8" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B2:G8" xr:uid="{3D2A340A-0690-4DC8-927E-FE8D1BB734CB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BA9E0710-49E4-4631-8796-9828152C79EE}" name="Wheel"/>
     <tableColumn id="2" xr3:uid="{A7265771-FFDE-4F9C-A20D-93503DF684C3}" name="ARB"/>
-    <tableColumn id="3" xr3:uid="{57924571-BD22-49F6-B47E-E7227CAD786C}" name="MOTION RATIO" dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{57924571-BD22-49F6-B47E-E7227CAD786C}" name="MOTION RATIO" dataDxfId="19">
       <calculatedColumnFormula>表1[[#This Row],[ARB]]/表1[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{968F555E-16ED-4EED-9489-491EA1BF772E}" name="CANTILEVER" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{573D6EAF-FDE3-4C6E-8E40-9F81E52EF9F5}" name="TORSION" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{EE2C02EC-821C-4B70-94B8-8337649055CF}" name="NORMAL" dataDxfId="19">
+    <tableColumn id="4" xr3:uid="{968F555E-16ED-4EED-9489-491EA1BF772E}" name="CANTILEVER" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{573D6EAF-FDE3-4C6E-8E40-9F81E52EF9F5}" name="TORSION" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{EE2C02EC-821C-4B70-94B8-8337649055CF}" name="NORMAL" dataDxfId="16">
       <calculatedColumnFormula>表1[[#This Row],[MOTION RATIO]]*表1[[#This Row],[TORSION]]/表1[[#This Row],[CANTILEVER]]/表1[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3480,17 +3480,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{34C4E870-3033-4640-B8A2-3E1FBE4B7F1C}" name="表1_4" displayName="表1_4" ref="B10:G16" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{34C4E870-3033-4640-B8A2-3E1FBE4B7F1C}" name="表1_4" displayName="表1_4" ref="B10:G16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B10:G16" xr:uid="{34C4E870-3033-4640-B8A2-3E1FBE4B7F1C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{31D6B5A6-29F6-40D0-ABAA-E5059C36D1B5}" name="Wheel" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{3486DB28-9FB0-48EF-87CD-B65EF20F6F01}" name="ARB" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{6E023114-623D-4902-941F-35E1479B6411}" name="MOTION RATIO" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{31D6B5A6-29F6-40D0-ABAA-E5059C36D1B5}" name="Wheel" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{3486DB28-9FB0-48EF-87CD-B65EF20F6F01}" name="ARB" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{6E023114-623D-4902-941F-35E1479B6411}" name="MOTION RATIO" dataDxfId="11">
       <calculatedColumnFormula>表1_4[[#This Row],[ARB]]/表1_4[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1FB8ED05-3D86-4769-81DB-F0DBDB3CDE44}" name="CANTILEVER" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{1F17110F-EE9D-4BAE-9F87-AD8E1A304DBD}" name="TORSION" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{D6DEE0EA-ADFE-4C3D-9F50-924215005D24}" name="NORMAL" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{1FB8ED05-3D86-4769-81DB-F0DBDB3CDE44}" name="CANTILEVER" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{1F17110F-EE9D-4BAE-9F87-AD8E1A304DBD}" name="TORSION" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D6DEE0EA-ADFE-4C3D-9F50-924215005D24}" name="NORMAL" dataDxfId="9">
       <calculatedColumnFormula>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3499,17 +3499,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}" name="表1_45" displayName="表1_45" ref="B18:G24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}" name="表1_45" displayName="表1_45" ref="B18:G24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B18:G24" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D7B341F8-7760-4D85-A77A-B67E1F741D90}" name="Wheel" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0A9FF6E6-A324-450D-B137-3B47806EA86D}" name="ARB" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{137F4733-DE17-494E-9D05-D8BC09254548}" name="MOTION RATIO" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{D7B341F8-7760-4D85-A77A-B67E1F741D90}" name="Wheel" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0A9FF6E6-A324-450D-B137-3B47806EA86D}" name="ARB" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{137F4733-DE17-494E-9D05-D8BC09254548}" name="MOTION RATIO" dataDxfId="4">
       <calculatedColumnFormula>表1_45[[#This Row],[ARB]]/表1_45[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{402FC734-015E-48AD-9FFE-25F61C9EE630}" name="CANTILEVER" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{757504BF-2C1C-43B0-8007-2964AF0461ED}" name="TORSION" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{595E0B6D-3817-48BB-AE62-2A03988FE742}" name="NORMAL" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{402FC734-015E-48AD-9FFE-25F61C9EE630}" name="CANTILEVER" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{757504BF-2C1C-43B0-8007-2964AF0461ED}" name="TORSION" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{595E0B6D-3817-48BB-AE62-2A03988FE742}" name="NORMAL" dataDxfId="2">
       <calculatedColumnFormula>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3837,7 +3837,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4158,11 +4158,11 @@
         <v>154</v>
       </c>
       <c r="F14" s="5">
-        <v>2699</v>
+        <v>2939</v>
       </c>
       <c r="G14" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>3.4308868175369316E-2</v>
+        <v>3.7359675275068706E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18">
@@ -4183,11 +4183,11 @@
         <v>154</v>
       </c>
       <c r="F15" s="5">
-        <v>2699</v>
+        <v>2939</v>
       </c>
       <c r="G15" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>4.1003281477880411E-2</v>
+        <v>4.4649368011667474E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18">
@@ -4208,11 +4208,11 @@
         <v>154</v>
       </c>
       <c r="F16" s="5">
-        <v>2699</v>
+        <v>2939</v>
       </c>
       <c r="G16" s="2">
         <f>表1_47[[#This Row],[MOTION RATIO]]*表1_47[[#This Row],[TORSION]]/表1_47[[#This Row],[CANTILEVER]]/表1_47[[#This Row],[CANTILEVER]]</f>
-        <v>4.5187289791949831E-2</v>
+        <v>4.9205425972041715E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18">
@@ -4355,11 +4355,11 @@
         <v>154</v>
       </c>
       <c r="F22" s="4">
-        <v>4442</v>
+        <v>4912</v>
       </c>
       <c r="G22" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>5.6465354736936091E-2</v>
+        <v>6.2439851973847382E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18">
@@ -4380,11 +4380,11 @@
         <v>154</v>
       </c>
       <c r="F23" s="4">
-        <v>4442</v>
+        <v>4912</v>
       </c>
       <c r="G23" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>6.7482984929508993E-2</v>
+        <v>7.4623237724842001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18">
@@ -4405,11 +4405,11 @@
         <v>154</v>
       </c>
       <c r="F24" s="4">
-        <v>4442</v>
+        <v>4912</v>
       </c>
       <c r="G24" s="2">
         <f>表1_458[[#This Row],[MOTION RATIO]]*表1_458[[#This Row],[TORSION]]/表1_458[[#This Row],[CANTILEVER]]/表1_458[[#This Row],[CANTILEVER]]</f>
-        <v>7.4369003799867037E-2</v>
+        <v>8.2237853819213641E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4434,7 +4434,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G17"/>
+      <selection activeCell="F22" sqref="F22:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4766,11 +4766,11 @@
         <v>154</v>
       </c>
       <c r="F14" s="5">
-        <v>2699</v>
+        <v>2939</v>
       </c>
       <c r="G14" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>3.4948000154053943E-2</v>
+        <v>3.8055640034369967E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18">
@@ -4791,11 +4791,11 @@
         <v>154</v>
       </c>
       <c r="F15" s="5">
-        <v>2699</v>
+        <v>2939</v>
       </c>
       <c r="G15" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>4.2116820698475263E-2</v>
+        <v>4.5861925169625346E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18">
@@ -4816,11 +4816,11 @@
         <v>154</v>
       </c>
       <c r="F16" s="5">
-        <v>2699</v>
+        <v>2939</v>
       </c>
       <c r="G16" s="2">
         <f>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</f>
-        <v>4.5701230970685923E-2</v>
+        <v>4.9765067737253026E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18">
@@ -4948,11 +4948,11 @@
         <v>154</v>
       </c>
       <c r="F22" s="4">
-        <v>4442</v>
+        <v>4912</v>
       </c>
       <c r="G22" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>5.7517234784849054E-2</v>
+        <v>6.360302955046794E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18">
@@ -4973,11 +4973,11 @@
         <v>154</v>
       </c>
       <c r="F23" s="4">
-        <v>4442</v>
+        <v>4912</v>
       </c>
       <c r="G23" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>6.9315641920202717E-2</v>
+        <v>7.6649804842871622E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18">
@@ -4998,11 +4998,11 @@
         <v>154</v>
       </c>
       <c r="F24" s="4">
-        <v>4442</v>
+        <v>4912</v>
       </c>
       <c r="G24" s="2">
         <f>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</f>
-        <v>7.5214845487879545E-2</v>
+        <v>8.3173192489073455E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/ARB Stiffness Map.xlsx
+++ b/Docs/ARB Stiffness Map.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -410,25 +410,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
         <color rgb="FF000000"/>
         <name val="等线"/>
         <scheme val="minor"/>
@@ -518,6 +499,25 @@
           <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3489,8 +3489,8 @@
       <calculatedColumnFormula>表1_4[[#This Row],[ARB]]/表1_4[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{1FB8ED05-3D86-4769-81DB-F0DBDB3CDE44}" name="CANTILEVER" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{1F17110F-EE9D-4BAE-9F87-AD8E1A304DBD}" name="TORSION" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D6DEE0EA-ADFE-4C3D-9F50-924215005D24}" name="NORMAL" dataDxfId="9">
+    <tableColumn id="15" xr3:uid="{1F17110F-EE9D-4BAE-9F87-AD8E1A304DBD}" name="TORSION" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{D6DEE0EA-ADFE-4C3D-9F50-924215005D24}" name="NORMAL" dataDxfId="8">
       <calculatedColumnFormula>表1_4[[#This Row],[MOTION RATIO]]*表1_4[[#This Row],[TORSION]]/表1_4[[#This Row],[CANTILEVER]]/表1_4[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3499,17 +3499,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}" name="表1_45" displayName="表1_45" ref="B18:G24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}" name="表1_45" displayName="表1_45" ref="B18:G24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B18:G24" xr:uid="{28C9A949-AC86-4498-990F-EEB55A882ECE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D7B341F8-7760-4D85-A77A-B67E1F741D90}" name="Wheel" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0A9FF6E6-A324-450D-B137-3B47806EA86D}" name="ARB" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{137F4733-DE17-494E-9D05-D8BC09254548}" name="MOTION RATIO" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{D7B341F8-7760-4D85-A77A-B67E1F741D90}" name="Wheel" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0A9FF6E6-A324-450D-B137-3B47806EA86D}" name="ARB" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{137F4733-DE17-494E-9D05-D8BC09254548}" name="MOTION RATIO" dataDxfId="3">
       <calculatedColumnFormula>表1_45[[#This Row],[ARB]]/表1_45[[#This Row],[Wheel]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{402FC734-015E-48AD-9FFE-25F61C9EE630}" name="CANTILEVER" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{757504BF-2C1C-43B0-8007-2964AF0461ED}" name="TORSION" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{595E0B6D-3817-48BB-AE62-2A03988FE742}" name="NORMAL" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{402FC734-015E-48AD-9FFE-25F61C9EE630}" name="CANTILEVER" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{757504BF-2C1C-43B0-8007-2964AF0461ED}" name="TORSION" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{595E0B6D-3817-48BB-AE62-2A03988FE742}" name="NORMAL" dataDxfId="0">
       <calculatedColumnFormula>表1_45[[#This Row],[MOTION RATIO]]*表1_45[[#This Row],[TORSION]]/表1_45[[#This Row],[CANTILEVER]]/表1_45[[#This Row],[CANTILEVER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4434,7 +4434,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F24"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
